--- a/views/既有线拨距计算/数据输入模板.xlsx
+++ b/views/既有线拨距计算/数据输入模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\rtp\views\既有线拨距计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BF695C-AC3C-490F-AF56-EE57EBE32743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F22BE61-77EB-4C47-9B70-D5AC10A0DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>置镜点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,10 @@
 3.不要修改表头。
 4.不要修改sheet的名字和顺序。
 5.计算结果仅供参考。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l^3/(6Rl0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,25 +522,61 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,42 +590,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2196,13 +2200,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="8.7265625" style="9"/>
     <col min="2" max="2" width="9.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
@@ -2220,129 +2224,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="22" t="s">
+      <c r="R2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="27"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2372,6 +2376,11 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="19">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F1:L1"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="N1:S1"/>
@@ -2386,11 +2395,6 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2409,7 +2413,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="8.7265625" style="9"/>
     <col min="2" max="2" width="9.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
@@ -2427,150 +2431,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="20" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="27"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -2585,24 +2589,24 @@
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2617,21 +2621,21 @@
       <c r="E6" s="3">
         <v>20</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
@@ -2646,21 +2650,21 @@
       <c r="E7" s="3">
         <v>30</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -2675,21 +2679,21 @@
       <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
@@ -2704,21 +2708,21 @@
       <c r="E9" s="3">
         <v>50</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
@@ -2733,24 +2737,24 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2765,21 +2769,21 @@
       <c r="E11" s="3">
         <v>40</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
@@ -2794,21 +2798,21 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
@@ -2823,21 +2827,21 @@
       <c r="E13" s="3">
         <v>40</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
@@ -2852,21 +2856,21 @@
       <c r="E14" s="3">
         <v>30</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
@@ -2881,21 +2885,21 @@
       <c r="E15" s="3">
         <v>20</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
@@ -2910,21 +2914,21 @@
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
@@ -2939,21 +2943,21 @@
       <c r="E17" s="3">
         <v>40</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
@@ -2968,21 +2972,21 @@
       <c r="E18" s="3">
         <v>40</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -2997,24 +3001,24 @@
       <c r="E19" s="3">
         <v>20</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="9">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -3029,21 +3033,21 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
@@ -3058,21 +3062,21 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -3087,21 +3091,21 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -3116,21 +3120,21 @@
       <c r="E23" s="3">
         <v>20</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -3145,21 +3149,21 @@
       <c r="E24" s="3">
         <v>30</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
@@ -3174,24 +3178,24 @@
       <c r="E25" s="3">
         <v>30</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
     </row>
     <row r="26" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+      <c r="A26" s="9">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -3206,21 +3210,21 @@
       <c r="E26" s="3">
         <v>10</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
@@ -3235,31 +3239,29 @@
       <c r="E27" s="3">
         <v>10</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F4:T27"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="F1:L1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="I2:I3"/>
@@ -3268,11 +3270,13 @@
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="F4:T27"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
